--- a/Gemini/metrics-scenario-2/metrics_2_report4.xlsx
+++ b/Gemini/metrics-scenario-2/metrics_2_report4.xlsx
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="n">
         <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" t="n">
         <v>69</v>
@@ -753,13 +753,13 @@
         <v>79</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>0.3047619047619048</v>
+        <v>0.3207547169811321</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>0.1265822784810127</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.7974683544303798</v>
+        <v>0.7848101265822784</v>
       </c>
     </row>
   </sheetData>
@@ -800,13 +800,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>0.2417989417989418</v>
+        <v>0.2435759209344115</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0.05478640046688025</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.7732092133618567</v>
+        <v>0.7718027436009565</v>
       </c>
     </row>
   </sheetData>
@@ -847,13 +847,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>0.2778481012658228</v>
+        <v>0.2858445073754364</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0.0943434269867324</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.7784810126582279</v>
+        <v>0.7721518987341772</v>
       </c>
     </row>
   </sheetData>
